--- a/biology/Médecine/Antonino_Anile/Antonino_Anile.xlsx
+++ b/biology/Médecine/Antonino_Anile/Antonino_Anile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Antonino Salvatore Anile (20 novembre 1869, Pizzo - 26 septembre 1943, Raiano) est un anatomiste, lettré et homme politique italien. Il fut notamment député et ministre de l'Instruction publique.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonino Anile naît en 1869 à Pizzo, dans le sud de l'Italie, dans une famille de la petite bourgeoisie foncière. Il étudie la médecine à l'Université de Naples dont il sort diplômé en 1894. Il enseigne ensuite l'anatomie, avant de devenir professeur d'anatomie artistique à l'Académie des beaux-arts de Naples en 1912 puis à l'Académie des Beaux Arts de Rome.
 Dans les années précédents directement le début de la Première Guerre mondiale, Anile s'impose en tant qu'intellectuel catholique, notamment à travers ses articles d'opinion publiés dans le journal Giornale d'Italia. En 1919, il rejoint le Parti populaire italien, ancêtre de la Démocratie chrétienne, et en novembre 1919 il est élu député pour la circonscription de Catanzaro. Il est ensuite réélu en 1921 et 1924.
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
